--- a/medicine/Mort/Terrorisme_en_1969/Terrorisme_en_1969.xlsx
+++ b/medicine/Mort/Terrorisme_en_1969/Terrorisme_en_1969.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,20 +520,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-Février
-18 février, Suisse : à l'aéroport de Zurich-Kloten, quatre terroristes palestiniens tirent sur un appareil de la compagnie israélienne El-Al, tuant le pilote. Un des terroristes est abattu par le service de sécurité après des échanges de tir. En novembre 1969, les trois autres sont condamnés à douze ans de réclusion par le tribunal correctionnel de Winterthour. Le 9 septembre 1970, afin de libérer ces prisonniers, le FPLP détourne un avion de la Swissair. (Dawson Field)[1]
-Mars
-Avril
-Mai
-Juin
-Juillet
-Août
-Septembre
-Octobre
-Novembre
-Décembre
-12 décembre, Italie : l'attentat de la piazza Fontana à Milan fait seize morts et quatre-vingt-huit blessés. Dans un premier temps attribué à l'extrême gauche, l'attentat est finalement relié à l'extrême-droite néofasciste[2].</t>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>18 février, Suisse : à l'aéroport de Zurich-Kloten, quatre terroristes palestiniens tirent sur un appareil de la compagnie israélienne El-Al, tuant le pilote. Un des terroristes est abattu par le service de sécurité après des échanges de tir. En novembre 1969, les trois autres sont condamnés à douze ans de réclusion par le tribunal correctionnel de Winterthour. Le 9 septembre 1970, afin de libérer ces prisonniers, le FPLP détourne un avion de la Swissair. (Dawson Field)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1969</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1969</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12 décembre, Italie : l'attentat de la piazza Fontana à Milan fait seize morts et quatre-vingt-huit blessés. Dans un premier temps attribué à l'extrême gauche, l'attentat est finalement relié à l'extrême-droite néofasciste.</t>
         </is>
       </c>
     </row>
